--- a/src/main/resources/template/contradictionTemplate.xlsx
+++ b/src/main/resources/template/contradictionTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\petition-manage\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcm95\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610DA277-7A94-43CE-A900-72DC5D1C37A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF4A4C5-9184-41B2-9008-67868AC9B282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>姓名</t>
   </si>
@@ -233,6 +233,35 @@
   </si>
   <si>
     <t>341100190001011000</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉法诉讼</t>
+  </si>
+  <si>
+    <t>诉求概述</t>
+  </si>
+  <si>
+    <t>化解过程简述</t>
+  </si>
+  <si>
+    <t>是/否</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅导入1条，其他请在界面上增加</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>诉求概述</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>未化解原因</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -531,11 +560,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -866,33 +895,36 @@
     <col min="8" max="8" width="19.625" customWidth="1"/>
     <col min="9" max="20" width="12" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="22" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="28" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:25" s="28" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
     </row>
-    <row r="2" spans="1:21" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -956,8 +988,20 @@
       <c r="U2" s="16" t="s">
         <v>14</v>
       </c>
+      <c r="V2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>34</v>
       </c>
@@ -988,7 +1032,7 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="25" t="s">
         <v>21</v>
       </c>
       <c r="R3" s="26"/>
@@ -1001,8 +1045,20 @@
       <c r="U3" s="26" t="s">
         <v>24</v>
       </c>
+      <c r="V3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="25" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <v>1</v>
       </c>
@@ -1018,7 +1074,7 @@
       <c r="E4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <v>1</v>
       </c>
       <c r="G4" s="26">
@@ -1065,6 +1121,18 @@
       </c>
       <c r="U4" s="23" t="s">
         <v>16</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="26" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
